--- a/Shedule/Shedule/example.xlsx
+++ b/Shedule/Shedule/example.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28919"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7713CD9-CA5B-4CB8-B13D-C25006F318C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D26F6C05-5E22-4786-B930-1A21016E8E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>имя</t>
   </si>
@@ -54,37 +54,52 @@
     <t>степан</t>
   </si>
   <si>
+    <t>информатика, математика</t>
+  </si>
+  <si>
+    <t>кирилл</t>
+  </si>
+  <si>
+    <t>математика, информатика</t>
+  </si>
+  <si>
+    <t>александр</t>
+  </si>
+  <si>
+    <t>физика, информатика, математика</t>
+  </si>
+  <si>
+    <t>вадим</t>
+  </si>
+  <si>
+    <t>ученик</t>
+  </si>
+  <si>
+    <t>вероника</t>
+  </si>
+  <si>
+    <t>математика</t>
+  </si>
+  <si>
+    <t>роман</t>
+  </si>
+  <si>
+    <t>физика</t>
+  </si>
+  <si>
+    <t>студ1</t>
+  </si>
+  <si>
     <t>информатика</t>
   </si>
   <si>
-    <t>кирилл</t>
-  </si>
-  <si>
-    <t>математика</t>
-  </si>
-  <si>
-    <t>александр</t>
-  </si>
-  <si>
-    <t>физика</t>
-  </si>
-  <si>
-    <t>вадим</t>
-  </si>
-  <si>
-    <t>ученик</t>
-  </si>
-  <si>
-    <t>вероника</t>
-  </si>
-  <si>
-    <t>роман</t>
-  </si>
-  <si>
-    <t>студ1</t>
-  </si>
-  <si>
     <t>студ2</t>
+  </si>
+  <si>
+    <t>артур</t>
+  </si>
+  <si>
+    <t>никита</t>
   </si>
 </sst>
 </file>
@@ -457,16 +472,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D12" sqref="D12:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -576,7 +592,7 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1">
         <v>0.41666666666666669</v>
@@ -587,10 +603,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D8" s="1">
         <v>0.41666666666666669</v>
@@ -601,10 +617,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="B9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D9" s="1">
         <v>0.41666666666666669</v>
@@ -615,15 +631,43 @@
     </row>
     <row r="10" spans="1:6">
       <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
         <v>17</v>
       </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="D11" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E12" s="1">
         <v>0.625</v>
       </c>
     </row>

--- a/Shedule/Shedule/example.xlsx
+++ b/Shedule/Shedule/example.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28919"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28928"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D26F6C05-5E22-4786-B930-1A21016E8E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9CD74E7-87E3-42A4-9CCB-1046C7154158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -31,7 +32,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+  <si>
+    <t>,vp[av</t>
+  </si>
+  <si>
+    <t>avdf</t>
+  </si>
+  <si>
+    <t>dfvfdv</t>
+  </si>
+  <si>
+    <t>avddfv</t>
+  </si>
   <si>
     <t>имя</t>
   </si>
@@ -54,22 +67,25 @@
     <t>степан</t>
   </si>
   <si>
+    <t>информатика, математика,физика</t>
+  </si>
+  <si>
+    <t>кирилл</t>
+  </si>
+  <si>
+    <t>математика, информатика</t>
+  </si>
+  <si>
+    <t>александр</t>
+  </si>
+  <si>
+    <t>физика, информатика, математика</t>
+  </si>
+  <si>
+    <t>вадим</t>
+  </si>
+  <si>
     <t>информатика, математика</t>
-  </si>
-  <si>
-    <t>кирилл</t>
-  </si>
-  <si>
-    <t>математика, информатика</t>
-  </si>
-  <si>
-    <t>александр</t>
-  </si>
-  <si>
-    <t>физика, информатика, математика</t>
-  </si>
-  <si>
-    <t>вадим</t>
   </si>
   <si>
     <t>ученик</t>
@@ -471,11 +487,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC9AECF6-6A13-4C06-968C-F4509D45D703}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -489,30 +536,30 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1">
         <v>0.41666666666666669</v>
@@ -521,18 +568,18 @@
         <v>0.625</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1">
         <v>0.41666666666666669</v>
@@ -541,18 +588,18 @@
         <v>0.625</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1">
         <v>0.41666666666666669</v>
@@ -561,18 +608,18 @@
         <v>0.625</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1">
         <v>0.41666666666666669</v>
@@ -586,13 +633,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1">
         <v>0.41666666666666669</v>
@@ -603,10 +650,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="B8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1">
         <v>0.41666666666666669</v>
@@ -617,10 +664,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="B9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D9" s="1">
         <v>0.41666666666666669</v>
@@ -631,10 +678,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="B10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D10" s="1">
         <v>0.41666666666666669</v>
@@ -645,10 +692,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="B11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D11" s="1">
         <v>0.41666666666666669</v>
@@ -659,10 +706,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D12" s="1">
         <v>0.41666666666666669</v>

--- a/Shedule/Shedule/example.xlsx
+++ b/Shedule/Shedule/example.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28919"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28928"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7713CD9-CA5B-4CB8-B13D-C25006F318C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9CD74E7-87E3-42A4-9CCB-1046C7154158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -31,7 +32,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+  <si>
+    <t>,vp[av</t>
+  </si>
+  <si>
+    <t>avdf</t>
+  </si>
+  <si>
+    <t>dfvfdv</t>
+  </si>
+  <si>
+    <t>avddfv</t>
+  </si>
   <si>
     <t>имя</t>
   </si>
@@ -54,37 +67,55 @@
     <t>степан</t>
   </si>
   <si>
+    <t>информатика, математика,физика</t>
+  </si>
+  <si>
+    <t>кирилл</t>
+  </si>
+  <si>
+    <t>математика, информатика</t>
+  </si>
+  <si>
+    <t>александр</t>
+  </si>
+  <si>
+    <t>физика, информатика, математика</t>
+  </si>
+  <si>
+    <t>вадим</t>
+  </si>
+  <si>
+    <t>информатика, математика</t>
+  </si>
+  <si>
+    <t>ученик</t>
+  </si>
+  <si>
+    <t>вероника</t>
+  </si>
+  <si>
+    <t>математика</t>
+  </si>
+  <si>
+    <t>роман</t>
+  </si>
+  <si>
+    <t>физика</t>
+  </si>
+  <si>
+    <t>студ1</t>
+  </si>
+  <si>
     <t>информатика</t>
   </si>
   <si>
-    <t>кирилл</t>
-  </si>
-  <si>
-    <t>математика</t>
-  </si>
-  <si>
-    <t>александр</t>
-  </si>
-  <si>
-    <t>физика</t>
-  </si>
-  <si>
-    <t>вадим</t>
-  </si>
-  <si>
-    <t>ученик</t>
-  </si>
-  <si>
-    <t>вероника</t>
-  </si>
-  <si>
-    <t>роман</t>
-  </si>
-  <si>
-    <t>студ1</t>
-  </si>
-  <si>
     <t>студ2</t>
+  </si>
+  <si>
+    <t>артур</t>
+  </si>
+  <si>
+    <t>никита</t>
   </si>
 </sst>
 </file>
@@ -456,47 +487,79 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC9AECF6-6A13-4C06-968C-F4509D45D703}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1">
         <v>0.41666666666666669</v>
@@ -505,18 +568,18 @@
         <v>0.625</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1">
         <v>0.41666666666666669</v>
@@ -525,18 +588,18 @@
         <v>0.625</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1">
         <v>0.41666666666666669</v>
@@ -545,18 +608,18 @@
         <v>0.625</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1">
         <v>0.41666666666666669</v>
@@ -570,13 +633,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1">
         <v>0.41666666666666669</v>
@@ -587,10 +650,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="B8" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1">
         <v>0.41666666666666669</v>
@@ -601,10 +664,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="B9" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D9" s="1">
         <v>0.41666666666666669</v>
@@ -615,15 +678,43 @@
     </row>
     <row r="10" spans="1:6">
       <c r="B10" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D10" s="1">
         <v>0.41666666666666669</v>
       </c>
       <c r="E10" s="1">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E12" s="1">
         <v>0.625</v>
       </c>
     </row>

--- a/Shedule/Shedule/example.xlsx
+++ b/Shedule/Shedule/example.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28928"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9CD74E7-87E3-42A4-9CCB-1046C7154158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="117" documentId="11_9E4E55BF84DCCE936123EA198B31F45B1AF97439" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5AE19EC-2A86-46F3-9508-EC7F96A8B584}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист2" sheetId="2" r:id="rId1"/>
-    <sheet name="Лист1" sheetId="1" r:id="rId2"/>
+    <sheet name="преподы" sheetId="2" r:id="rId1"/>
+    <sheet name="ученики" sheetId="1" r:id="rId2"/>
+    <sheet name="квалификации" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -32,19 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
-  <si>
-    <t>,vp[av</t>
-  </si>
-  <si>
-    <t>avdf</t>
-  </si>
-  <si>
-    <t>dfvfdv</t>
-  </si>
-  <si>
-    <t>avddfv</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>имя</t>
   </si>
@@ -67,55 +56,52 @@
     <t>степан</t>
   </si>
   <si>
-    <t>информатика, математика,физика</t>
-  </si>
-  <si>
     <t>кирилл</t>
   </si>
   <si>
-    <t>математика, информатика</t>
-  </si>
-  <si>
     <t>александр</t>
   </si>
   <si>
-    <t>физика, информатика, математика</t>
+    <t>1,2,3</t>
   </si>
   <si>
     <t>вадим</t>
   </si>
   <si>
-    <t>информатика, математика</t>
-  </si>
-  <si>
     <t>ученик</t>
   </si>
   <si>
     <t>вероника</t>
   </si>
   <si>
+    <t>роман</t>
+  </si>
+  <si>
+    <t>студ1</t>
+  </si>
+  <si>
+    <t>студ2</t>
+  </si>
+  <si>
+    <t>артур</t>
+  </si>
+  <si>
+    <t>никита</t>
+  </si>
+  <si>
+    <t>предмет:</t>
+  </si>
+  <si>
+    <t>ID:</t>
+  </si>
+  <si>
     <t>математика</t>
   </si>
   <si>
-    <t>роман</t>
-  </si>
-  <si>
     <t>физика</t>
   </si>
   <si>
-    <t>студ1</t>
-  </si>
-  <si>
     <t>информатика</t>
-  </si>
-  <si>
-    <t>студ2</t>
-  </si>
-  <si>
-    <t>артур</t>
-  </si>
-  <si>
-    <t>никита</t>
   </si>
 </sst>
 </file>
@@ -488,28 +474,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC9AECF6-6A13-4C06-968C-F4509D45D703}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="C2" t="s">
+      <c r="E1" t="s">
         <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>1.3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>1.3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>1.3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -519,10 +586,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -534,32 +601,29 @@
     <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="B1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
       <c r="D2" s="1">
         <v>0.41666666666666669</v>
@@ -567,155 +631,125 @@
       <c r="E2" s="1">
         <v>0.625</v>
       </c>
-      <c r="F2">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
       <c r="D3" s="1">
         <v>0.41666666666666669</v>
       </c>
       <c r="E3" s="1">
         <v>0.625</v>
       </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.625</v>
-      </c>
-      <c r="F4">
+      <c r="C5">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D5" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.625</v>
-      </c>
-      <c r="F5">
+      <c r="C7">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
+      <c r="D7" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.625</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3D736D-4EDD-4E7C-A04A-053C1560E50E}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B1" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="B8" t="s">
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.625</v>
+      <c r="B4">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Shedule/Shedule/example.xlsx
+++ b/Shedule/Shedule/example.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="117" documentId="11_9E4E55BF84DCCE936123EA198B31F45B1AF97439" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5AE19EC-2A86-46F3-9508-EC7F96A8B584}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af779506ed79a443/Документы/GitHub/Making-a-schedule/Shedule/Shedule/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="137" documentId="11_9E4E55BF84DCCE936123EA198B31F45B1AF97439" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4F94432-9A4B-4BD1-B69C-141492B94946}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="преподы" sheetId="2" r:id="rId1"/>
@@ -33,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>имя</t>
   </si>
@@ -50,6 +55,9 @@
     <t>приоритет</t>
   </si>
   <si>
+    <t>макс внимание</t>
+  </si>
+  <si>
     <t>препод</t>
   </si>
   <si>
@@ -66,6 +74,9 @@
   </si>
   <si>
     <t>вадим</t>
+  </si>
+  <si>
+    <t>потребность во внимании в минутах</t>
   </si>
   <si>
     <t>ученик</t>
@@ -108,7 +119,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +166,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -474,15 +489,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC9AECF6-6A13-4C06-968C-F4509D45D703}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -498,13 +516,16 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>1.3</v>
@@ -519,12 +540,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>1.3</v>
@@ -539,15 +560,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1">
         <v>0.41666666666666669</v>
@@ -559,12 +580,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>1.3</v>
@@ -586,22 +607,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -614,13 +635,16 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -631,10 +655,13 @@
       <c r="E2" s="1">
         <v>0.625</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -645,10 +672,13 @@
       <c r="E3" s="1">
         <v>0.625</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -659,10 +689,13 @@
       <c r="E4" s="1">
         <v>0.625</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -673,10 +706,13 @@
       <c r="E5" s="1">
         <v>0.625</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -687,10 +723,13 @@
       <c r="E6" s="1">
         <v>0.625</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -700,6 +739,9 @@
       </c>
       <c r="E7" s="1">
         <v>0.625</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -715,38 +757,38 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>3</v>

--- a/Shedule/Shedule/example.xlsx
+++ b/Shedule/Shedule/example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af779506ed79a443/Документы/GitHub/Making-a-schedule/Shedule/Shedule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="137" documentId="11_9E4E55BF84DCCE936123EA198B31F45B1AF97439" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4F94432-9A4B-4BD1-B69C-141492B94946}"/>
+  <xr:revisionPtr revIDLastSave="173" documentId="11_9E4E55BF84DCCE936123EA198B31F45B1AF97439" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B9F30E0-CEFB-4A39-B152-7D05645FF60A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="преподы" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>имя</t>
   </si>
@@ -113,6 +113,15 @@
   </si>
   <si>
     <t>информатика</t>
+  </si>
+  <si>
+    <t>география</t>
+  </si>
+  <si>
+    <t>ашот</t>
+  </si>
+  <si>
+    <t>Кокоджамбов</t>
   </si>
 </sst>
 </file>
@@ -489,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC9AECF6-6A13-4C06-968C-F4509D45D703}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -534,7 +543,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E2" s="1">
-        <v>0.625</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -554,7 +563,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E3" s="1">
-        <v>0.625</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -574,7 +583,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E4" s="1">
-        <v>0.625</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -594,10 +603,27 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E5" s="1">
-        <v>0.625</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="F5">
         <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -607,10 +633,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -653,10 +679,10 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E2" s="1">
-        <v>0.625</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -670,10 +696,10 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E3" s="1">
-        <v>0.625</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -687,10 +713,10 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E4" s="1">
-        <v>0.625</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="F4">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -704,10 +730,10 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E5" s="1">
-        <v>0.625</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="F5">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -721,10 +747,10 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E6" s="1">
-        <v>0.625</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -738,9 +764,26 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E7" s="1">
-        <v>0.625</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="F8">
         <v>10</v>
       </c>
     </row>
@@ -751,10 +794,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3D736D-4EDD-4E7C-A04A-053C1560E50E}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -794,6 +837,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Shedule/Shedule/example.xlsx
+++ b/Shedule/Shedule/example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af779506ed79a443/Документы/GitHub/Making-a-schedule/Shedule/Shedule/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Making-a-schedule\Shedule\Shedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="173" documentId="11_9E4E55BF84DCCE936123EA198B31F45B1AF97439" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B9F30E0-CEFB-4A39-B152-7D05645FF60A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2721C8F8-7E33-4E54-A940-C0E5B0889FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="преподы" sheetId="2" r:id="rId1"/>
@@ -29,8 +29,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>имя</t>
   </si>
@@ -128,7 +126,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -500,16 +498,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC9AECF6-6A13-4C06-968C-F4509D45D703}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -529,7 +527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -543,13 +541,13 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E2" s="1">
-        <v>0.42708333333333331</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -569,7 +567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -589,7 +587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -603,13 +601,16 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E5" s="1">
-        <v>0.42708333333333331</v>
+        <v>0.43055555555555558</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
       <c r="B6" t="s">
         <v>27</v>
       </c>
@@ -620,7 +621,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E6" s="1">
-        <v>0.42708333333333331</v>
+        <v>0.43055555555555558</v>
       </c>
       <c r="F6">
         <v>20</v>
@@ -636,19 +637,19 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -665,7 +666,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -679,13 +680,13 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E2" s="1">
-        <v>0.42708333333333331</v>
+        <v>0.46527777777777779</v>
       </c>
       <c r="F2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="B3" t="s">
         <v>15</v>
       </c>
@@ -702,7 +703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="B4" t="s">
         <v>16</v>
       </c>
@@ -719,7 +720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="B5" t="s">
         <v>17</v>
       </c>
@@ -736,7 +737,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="B6" t="s">
         <v>18</v>
       </c>
@@ -753,7 +754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="B7" t="s">
         <v>19</v>
       </c>
@@ -770,7 +771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="B8" t="s">
         <v>26</v>
       </c>
@@ -781,7 +782,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E8" s="1">
-        <v>0.42708333333333331</v>
+        <v>0.43055555555555558</v>
       </c>
       <c r="F8">
         <v>10</v>
@@ -796,16 +797,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3D736D-4EDD-4E7C-A04A-053C1560E50E}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -813,7 +814,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -821,7 +822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -829,7 +830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -837,7 +838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>25</v>
       </c>

--- a/Shedule/Shedule/example.xlsx
+++ b/Shedule/Shedule/example.xlsx
@@ -16,7 +16,7 @@
     <x:sheet name="преподы" sheetId="2" r:id="rId1"/>
     <x:sheet name="ученики" sheetId="1" r:id="rId2"/>
     <x:sheet name="квалификации" sheetId="3" r:id="rId3"/>
-    <x:sheet name="Расписание и комбинации" sheetId="40" r:id="rId8"/>
+    <x:sheet name="Расписание и комбинации" sheetId="43" r:id="rId8"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="191028"/>
@@ -256,19 +256,19 @@
     <x:t>11:30-11:45</x:t>
   </x:si>
   <x:si>
+    <x:t>10:15-10:30</x:t>
+  </x:si>
+  <x:si>
     <x:t>11:15-11:30</x:t>
   </x:si>
   <x:si>
-    <x:t>10:15-10:30</x:t>
-  </x:si>
-  <x:si>
     <x:t>11:00-11:15</x:t>
   </x:si>
   <x:si>
+    <x:t>10:30-10:45</x:t>
+  </x:si>
+  <x:si>
     <x:t>10:45-11:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10:30-10:45</x:t>
   </x:si>
   <x:si>
     <x:t>10:00-10:15</x:t>
@@ -1264,19 +1264,19 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="G1" s="12" t="s">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H1" s="12" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="I1" s="12" t="s">
         <x:v>76</x:v>
-      </x:c>
-      <x:c r="I1" s="12" t="s">
-        <x:v>75</x:v>
       </x:c>
       <x:c r="J1" s="12" t="s">
         <x:v>74</x:v>
       </x:c>
       <x:c r="K1" s="12" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="L1" s="12" t="s">
         <x:v>71</x:v>

--- a/Shedule/Shedule/example.xlsx
+++ b/Shedule/Shedule/example.xlsx
@@ -16,7 +16,7 @@
     <x:sheet name="преподы" sheetId="2" r:id="rId1"/>
     <x:sheet name="ученики" sheetId="1" r:id="rId2"/>
     <x:sheet name="квалификации" sheetId="3" r:id="rId3"/>
-    <x:sheet name="Расписание и комбинации" sheetId="43" r:id="rId8"/>
+    <x:sheet name="Расписание и комбинации" sheetId="40" r:id="rId8"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="191028"/>
@@ -256,19 +256,19 @@
     <x:t>11:30-11:45</x:t>
   </x:si>
   <x:si>
+    <x:t>11:15-11:30</x:t>
+  </x:si>
+  <x:si>
     <x:t>10:15-10:30</x:t>
   </x:si>
   <x:si>
-    <x:t>11:15-11:30</x:t>
-  </x:si>
-  <x:si>
     <x:t>11:00-11:15</x:t>
   </x:si>
   <x:si>
+    <x:t>10:45-11:00</x:t>
+  </x:si>
+  <x:si>
     <x:t>10:30-10:45</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10:45-11:00</x:t>
   </x:si>
   <x:si>
     <x:t>10:00-10:15</x:t>
@@ -1264,19 +1264,19 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="G1" s="12" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H1" s="12" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="I1" s="12" t="s">
         <x:v>75</x:v>
-      </x:c>
-      <x:c r="I1" s="12" t="s">
-        <x:v>76</x:v>
       </x:c>
       <x:c r="J1" s="12" t="s">
         <x:v>74</x:v>
       </x:c>
       <x:c r="K1" s="12" t="s">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L1" s="12" t="s">
         <x:v>71</x:v>

--- a/Shedule/Shedule/example.xlsx
+++ b/Shedule/Shedule/example.xlsx
@@ -16,7 +16,7 @@
     <x:sheet name="преподы" sheetId="2" r:id="rId1"/>
     <x:sheet name="ученики" sheetId="1" r:id="rId2"/>
     <x:sheet name="квалификации" sheetId="3" r:id="rId3"/>
-    <x:sheet name="Расписание и комбинации" sheetId="40" r:id="rId8"/>
+    <x:sheet name="Расписание и комбинации" sheetId="41" r:id="rId8"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="191028"/>

--- a/Shedule/Shedule/example.xlsx
+++ b/Shedule/Shedule/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Making-a-schedule\Shedule\Shedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888A75AF-A546-4783-BC70-98D814C73D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76BBA2B-C7F5-45EA-9DE5-AE020AE59190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -16,7 +16,7 @@
     <x:sheet name="преподы" sheetId="2" r:id="rId1"/>
     <x:sheet name="ученики" sheetId="1" r:id="rId2"/>
     <x:sheet name="квалификации" sheetId="3" r:id="rId3"/>
-    <x:sheet name="Расписание и комбинации" sheetId="41" r:id="rId8"/>
+    <x:sheet name="Расписание и комбинации" sheetId="49" r:id="rId8"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="191028"/>
@@ -124,169 +124,187 @@
     <x:t>география</x:t>
   </x:si>
   <x:si>
+    <x:t>александр, вадим, Кокоджамбов</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Состав комбинации</x:t>
+  </x:si>
+  <x:si>
+    <x:t>№</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Список комбинаций преподавателей</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1: Кокоджамбов</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1: александр, Кокоджамбов</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1: степан, александр, Кокоджамбов; 2: кирилл, александр, Кокоджамбов; 3: александр, вадим, Кокоджамбов</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1: александр</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Комбинации</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19:45-20:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19:30-19:45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19:15-19:30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19:00-19:15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18:45-19:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18:30-18:45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18:15-18:30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18:00-18:15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17:45-18:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17:30-17:45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17:15-17:30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17:00-17:15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16:45-17:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16:30-16:45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16:15-16:30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16:00-16:15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15:45-16:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15:30-15:45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15:15-15:30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15:00-15:15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14:45-15:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14:30-14:45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14:15-14:30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14:00-14:15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13:45-14:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13:30-13:45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13:15-13:30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13:00-13:15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12:45-13:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12:30-12:45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12:15-12:30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11:15-11:30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11:45-12:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12:00-12:15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11:30-11:45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11:00-11:15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10:30-10:45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10:45-11:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10:15-10:30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10:00-10:15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09:45-10:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09:30-09:45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09:15-09:30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09:00-09:15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Teachers/Time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>степан, александр, Кокоджамбов</x:t>
+  </x:si>
+  <x:si>
     <x:t>кирилл, александр, Кокоджамбов</x:t>
-  </x:si>
-  <x:si>
-    <x:t>степан, александр, Кокоджамбов</x:t>
-  </x:si>
-  <x:si>
-    <x:t>александр, вадим, Кокоджамбов</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Состав комбинации</x:t>
-  </x:si>
-  <x:si>
-    <x:t>№</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Список комбинаций преподавателей</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19:45-20:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19:30-19:45</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19:15-19:30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19:00-19:15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18:45-19:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18:30-18:45</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18:15-18:30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18:00-18:15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17:45-18:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17:30-17:45</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17:15-17:30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17:00-17:15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16:45-17:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16:30-16:45</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16:15-16:30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16:00-16:15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15:45-16:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15:30-15:45</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15:15-15:30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15:00-15:15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14:45-15:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14:30-14:45</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14:15-14:30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14:00-14:15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13:45-14:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13:30-13:45</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13:15-13:30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13:00-13:15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12:45-13:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12:30-12:45</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12:15-12:30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12:00-12:15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11:45-12:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11:30-11:45</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11:15-11:30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10:15-10:30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11:00-11:15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10:45-11:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10:30-10:45</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10:00-10:15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09:45-10:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09:30-09:45</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09:15-09:30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09:00-09:15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Teachers/Time</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -376,27 +394,21 @@
       </x:bottom>
       <x:diagonal/>
     </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
+    <x:border>
       <x:left style="thin">
         <x:color rgb="FF000000"/>
       </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
+      <x:right/>
       <x:top style="thin">
         <x:color rgb="FF000000"/>
       </x:top>
       <x:bottom style="thin">
         <x:color rgb="FF000000"/>
       </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
+      <x:diagonal/>
     </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
+    <x:border>
+      <x:left/>
       <x:right style="thin">
         <x:color rgb="FF000000"/>
       </x:right>
@@ -406,35 +418,15 @@
       <x:bottom style="thin">
         <x:color rgb="FF000000"/>
       </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
+      <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="16">
+  <x:cellStyleXfs count="11">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <x:xf numFmtId="20" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -444,6 +436,9 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -459,33 +454,19 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="20">
+  <x:cellXfs count="16">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <x:xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -502,14 +483,6 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -855,8 +828,8 @@
   </x:sheetPr>
   <x:dimension ref="A1:G6"/>
   <x:sheetViews>
-    <x:sheetView workbookViewId="0">
-      <x:selection activeCell="E4" sqref="E4"/>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="E6" sqref="E6"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="13.8"/>
@@ -936,10 +909,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D4" s="1">
-        <x:v>0.416666666666667</x:v>
+        <x:v>0.375</x:v>
       </x:c>
       <x:c r="E4" s="1">
-        <x:v>0.427083333333333</x:v>
+        <x:v>0.4375</x:v>
       </x:c>
       <x:c r="F4" s="0">
         <x:v>3</x:v>
@@ -979,7 +952,7 @@
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="E6" s="1">
-        <x:v>0.427083333333333</x:v>
+        <x:v>0.5</x:v>
       </x:c>
       <x:c r="F6" s="0">
         <x:v>20</x:v>
@@ -1002,7 +975,7 @@
   <x:dimension ref="A1:F8"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
-      <x:selection activeCell="D30" sqref="D30"/>
+      <x:selection activeCell="E9" sqref="E9"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="13.8"/>
@@ -1060,10 +1033,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D3" s="1">
-        <x:v>0.416666666666667</x:v>
+        <x:v>0.375</x:v>
       </x:c>
       <x:c r="E3" s="1">
-        <x:v>0.427083333333333</x:v>
+        <x:v>0.430555555555556</x:v>
       </x:c>
       <x:c r="F3" s="0">
         <x:v>4</x:v>
@@ -1080,7 +1053,7 @@
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="E4" s="1">
-        <x:v>0.427083333333333</x:v>
+        <x:v>0.430555555555556</x:v>
       </x:c>
       <x:c r="F4" s="0">
         <x:v>5</x:v>
@@ -1097,7 +1070,7 @@
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="E5" s="1">
-        <x:v>0.427083333333333</x:v>
+        <x:v>0.4375</x:v>
       </x:c>
       <x:c r="F5" s="0">
         <x:v>6</x:v>
@@ -1148,7 +1121,7 @@
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="E8" s="1">
-        <x:v>0.427083333333333</x:v>
+        <x:v>0.5</x:v>
       </x:c>
       <x:c r="F8" s="0">
         <x:v>10</x:v>
@@ -1233,7 +1206,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:AS13"/>
+  <x:dimension ref="A1:AS14"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1241,866 +1214,1007 @@
   <x:cols>
     <x:col min="1" max="1" width="5.710625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="50.710625" style="0" customWidth="1"/>
-    <x:col min="3" max="45" width="13.910625" style="0" customWidth="1"/>
+    <x:col min="3" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="50.710625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="30.710625" style="0" customWidth="1"/>
+    <x:col min="8" max="13" width="17.510625" style="0" customWidth="1"/>
+    <x:col min="14" max="45" width="13.910625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:45">
-      <x:c r="A1" s="12" t="s">
+      <x:c r="A1" s="11" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="B1" s="11" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C1" s="11" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D1" s="11" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="E1" s="11" t="s">
         <x:v>82</x:v>
       </x:c>
-      <x:c r="B1" s="12" t="s">
+      <x:c r="F1" s="11" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="C1" s="12" t="s">
+      <x:c r="G1" s="11" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="D1" s="12" t="s">
+      <x:c r="H1" s="11" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="I1" s="11" t="s">
         <x:v>79</x:v>
       </x:c>
-      <x:c r="E1" s="12" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="F1" s="12" t="s">
+      <x:c r="J1" s="11" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="G1" s="12" t="s">
+      <x:c r="K1" s="11" t="s">
         <x:v>73</x:v>
       </x:c>
-      <x:c r="H1" s="12" t="s">
+      <x:c r="L1" s="11" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="I1" s="12" t="s">
+      <x:c r="M1" s="11" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="N1" s="11" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="J1" s="12" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="K1" s="12" t="s">
+      <x:c r="O1" s="11" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="L1" s="12" t="s">
+      <x:c r="P1" s="11" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="M1" s="12" t="s">
+      <x:c r="Q1" s="11" t="s">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="N1" s="12" t="s">
+      <x:c r="R1" s="11" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="O1" s="12" t="s">
+      <x:c r="S1" s="11" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="P1" s="12" t="s">
+      <x:c r="T1" s="11" t="s">
         <x:v>67</x:v>
       </x:c>
-      <x:c r="Q1" s="12" t="s">
+      <x:c r="U1" s="11" t="s">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="R1" s="12" t="s">
+      <x:c r="V1" s="11" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="S1" s="12" t="s">
+      <x:c r="W1" s="11" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="T1" s="12" t="s">
+      <x:c r="X1" s="11" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="U1" s="12" t="s">
+      <x:c r="Y1" s="11" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="V1" s="12" t="s">
+      <x:c r="Z1" s="11" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="W1" s="12" t="s">
+      <x:c r="AA1" s="11" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="X1" s="12" t="s">
+      <x:c r="AB1" s="11" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="Y1" s="12" t="s">
+      <x:c r="AC1" s="11" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="Z1" s="12" t="s">
+      <x:c r="AD1" s="11" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="AA1" s="12" t="s">
+      <x:c r="AE1" s="11" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="AB1" s="12" t="s">
+      <x:c r="AF1" s="11" t="s">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="AC1" s="12" t="s">
+      <x:c r="AG1" s="11" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="AD1" s="12" t="s">
+      <x:c r="AH1" s="11" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="AE1" s="12" t="s">
+      <x:c r="AI1" s="11" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="AF1" s="12" t="s">
+      <x:c r="AJ1" s="11" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="AG1" s="12" t="s">
+      <x:c r="AK1" s="11" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="AH1" s="12" t="s">
+      <x:c r="AL1" s="11" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="AI1" s="12" t="s">
+      <x:c r="AM1" s="11" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="AJ1" s="12" t="s">
+      <x:c r="AN1" s="11" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="AK1" s="12" t="s">
+      <x:c r="AO1" s="11" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="AL1" s="12" t="s">
+      <x:c r="AP1" s="11" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="AM1" s="12" t="s">
+      <x:c r="AQ1" s="11" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="AN1" s="12" t="s">
+      <x:c r="AR1" s="11" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="AO1" s="12" t="s">
+      <x:c r="AS1" s="11" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="AP1" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AQ1" s="12" t="s">
+    </x:row>
+    <x:row r="2" spans="1:45">
+      <x:c r="A2" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B2" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C2" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D2" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="E2" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="F2" s="13" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="AR1" s="12" t="s">
+      <x:c r="G2" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="H2" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="I2" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="J2" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="K2" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="L2" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="M2" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="N2" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="O2" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="P2" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="Q2" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="R2" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="S2" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="T2" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="U2" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="V2" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="W2" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="X2" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="Y2" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="Z2" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AA2" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AB2" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AC2" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AD2" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AE2" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AF2" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AG2" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AH2" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AI2" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AJ2" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AK2" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AL2" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AM2" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AN2" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AO2" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AP2" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AQ2" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AR2" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AS2" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:45">
+      <x:c r="A3" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B3" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C3" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D3" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="E3" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="F3" s="13" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="AS1" s="12" t="s">
+      <x:c r="G3" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="H3" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="I3" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="J3" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="K3" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="L3" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="M3" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="N3" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="O3" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="P3" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="Q3" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="R3" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="S3" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="T3" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="U3" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="V3" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="W3" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="X3" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="Y3" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="Z3" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AA3" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AB3" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AC3" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AD3" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AE3" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AF3" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AG3" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AH3" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AI3" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AJ3" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AK3" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AL3" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AM3" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AN3" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AO3" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AP3" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AQ3" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AR3" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AS3" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:45">
+      <x:c r="A4" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B4" s="13" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C4" s="13" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="D4" s="13" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E4" s="13" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="F4" s="13" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="G4" s="13" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="H4" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="I4" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="J4" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="K4" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="L4" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="M4" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="N4" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="O4" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="P4" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="Q4" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="R4" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="S4" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="T4" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="U4" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="V4" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="W4" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="X4" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="Y4" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="Z4" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AA4" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AB4" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AC4" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AD4" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AE4" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AF4" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AG4" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AH4" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AI4" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AJ4" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AK4" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AL4" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AM4" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AN4" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AO4" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AP4" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AQ4" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AR4" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AS4" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:45">
+      <x:c r="A5" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B5" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C5" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D5" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="E5" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="F5" s="13" t="s">
         <x:v>38</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:45">
-      <x:c r="A2" s="13" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B2" s="14" t="s">
+      <x:c r="G5" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="H5" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="I5" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="J5" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="K5" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="L5" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="M5" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="N5" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="O5" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="P5" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="Q5" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="R5" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="S5" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="T5" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="U5" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="V5" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="W5" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="X5" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="Y5" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="Z5" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AA5" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AB5" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AC5" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AD5" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AE5" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AF5" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AG5" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AH5" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AI5" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AJ5" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AK5" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AL5" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AM5" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AN5" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AO5" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AP5" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AQ5" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AR5" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AS5" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:45">
+      <x:c r="A6" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B6" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C6" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D6" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="E6" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="F6" s="13" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="G6" s="13" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="H6" s="13" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="I6" s="13" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="J6" s="13" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="K6" s="13" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="L6" s="13" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="M6" s="13" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="N6" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="O6" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="P6" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="Q6" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="R6" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="S6" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="T6" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="U6" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="V6" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="W6" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="X6" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="Y6" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="Z6" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AA6" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AB6" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AC6" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AD6" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AE6" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AF6" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AG6" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AH6" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AI6" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AJ6" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AK6" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AL6" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AM6" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AN6" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AO6" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AP6" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AQ6" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AR6" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AS6" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:45">
+      <x:c r="A7" s="3" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C2" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="D2" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="E2" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="F2" s="15" t="s">
+      <x:c r="B7" s="13" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="G2" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="H2" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="I2" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="J2" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="K2" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="L2" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="M2" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="N2" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="O2" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="P2" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="Q2" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="R2" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="S2" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="T2" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="U2" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="V2" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="W2" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="X2" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="Y2" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="Z2" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AA2" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AB2" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AC2" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AD2" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AE2" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AF2" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AG2" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AH2" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AI2" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AJ2" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AK2" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AL2" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AM2" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AN2" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AO2" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AP2" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AQ2" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AR2" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AS2" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:45">
-      <x:c r="A3" s="13" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B3" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="C3" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="D3" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="E3" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="F3" s="15" t="s">
+      <x:c r="C7" s="13" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D7" s="13" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E7" s="13" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="F7" s="13" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="G3" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="H3" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="I3" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="J3" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="K3" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="L3" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="M3" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="N3" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="O3" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="P3" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="Q3" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="R3" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="S3" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="T3" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="U3" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="V3" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="W3" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="X3" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="Y3" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="Z3" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AA3" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AB3" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AC3" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AD3" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AE3" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AF3" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AG3" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AH3" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AI3" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AJ3" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AK3" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AL3" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AM3" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AN3" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AO3" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AP3" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AQ3" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AR3" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AS3" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:45">
-      <x:c r="A4" s="13" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B4" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="C4" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="D4" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="E4" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="F4" s="15" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="G4" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="H4" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="I4" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="J4" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="K4" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="L4" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="M4" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="N4" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="O4" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="P4" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="Q4" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="R4" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="S4" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="T4" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="U4" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="V4" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="W4" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="X4" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="Y4" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="Z4" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AA4" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AB4" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AC4" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AD4" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AE4" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AF4" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AG4" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AH4" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AI4" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AJ4" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AK4" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AL4" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AM4" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AN4" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AO4" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AP4" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AQ4" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AR4" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AS4" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:45">
-      <x:c r="A5" s="13" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B5" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="C5" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="D5" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="E5" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="F5" s="15" t="s">
+      <x:c r="G7" s="13" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="G5" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="H5" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="I5" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="J5" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="K5" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="L5" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="M5" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="N5" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="O5" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="P5" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="Q5" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="R5" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="S5" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="T5" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="U5" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="V5" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="W5" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="X5" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="Y5" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="Z5" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AA5" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AB5" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AC5" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AD5" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AE5" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AF5" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AG5" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AH5" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AI5" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AJ5" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AK5" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AL5" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AM5" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AN5" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AO5" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AP5" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AQ5" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AR5" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AS5" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:45">
-      <x:c r="A6" s="13" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="B6" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="C6" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="D6" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="E6" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="F6" s="15" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="G6" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="H6" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="I6" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="J6" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="K6" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="L6" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="M6" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="N6" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="O6" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="P6" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="Q6" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="R6" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="S6" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="T6" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="U6" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="V6" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="W6" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="X6" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="Y6" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="Z6" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AA6" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AB6" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AC6" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AD6" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AE6" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AF6" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AG6" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AH6" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AI6" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AJ6" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AK6" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AL6" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AM6" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AN6" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AO6" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AP6" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AQ6" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AR6" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AS6" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:45">
-      <x:c r="A9" s="6" t="s">
+      <x:c r="H7" s="13" t="s">
         <x:v>33</x:v>
       </x:c>
+      <x:c r="I7" s="13" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="J7" s="13" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="K7" s="13" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="L7" s="13" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="M7" s="13" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="N7" s="13" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="O7" s="13" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="P7" s="13" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q7" s="13" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="R7" s="13" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="S7" s="13" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="T7" s="13" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="U7" s="13" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="V7" s="13" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="W7" s="13" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="X7" s="13" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Y7" s="13" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Z7" s="13" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AA7" s="13" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AB7" s="13" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AC7" s="13" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AD7" s="13" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AE7" s="13" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AF7" s="13" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AG7" s="13" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AH7" s="13" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AI7" s="13" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AJ7" s="13" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AK7" s="13" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AL7" s="13" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AM7" s="13" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AN7" s="13" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AO7" s="13" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AP7" s="13" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AQ7" s="13" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AR7" s="13" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AS7" s="13" t="s">
+        <x:v>32</x:v>
+      </x:c>
     </x:row>
     <x:row r="10" spans="1:45">
-      <x:c r="A10" s="16" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="B10" s="17" t="s">
+      <x:c r="A10" s="2" t="s">
         <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:45">
-      <x:c r="A11" s="18">
+      <x:c r="A11" s="14" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B11" s="15" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:45">
+      <x:c r="A12" s="4">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B11" s="19" t="s">
-        <x:v>30</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:45">
-      <x:c r="A12" s="18">
+      <x:c r="B12" s="5" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:45">
+      <x:c r="A13" s="4">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B12" s="19" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:45">
-      <x:c r="A13" s="18">
+      <x:c r="B13" s="5" t="s">
+        <x:v>87</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:45">
+      <x:c r="A14" s="4">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="B13" s="19" t="s">
-        <x:v>28</x:v>
+      <x:c r="B14" s="5" t="s">
+        <x:v>88</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Shedule/Shedule/example.xlsx
+++ b/Shedule/Shedule/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Making-a-schedule\Shedule\Shedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76BBA2B-C7F5-45EA-9DE5-AE020AE59190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888A75AF-A546-4783-BC70-98D814C73D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -16,7 +16,7 @@
     <x:sheet name="преподы" sheetId="2" r:id="rId1"/>
     <x:sheet name="ученики" sheetId="1" r:id="rId2"/>
     <x:sheet name="квалификации" sheetId="3" r:id="rId3"/>
-    <x:sheet name="Расписание и комбинации" sheetId="49" r:id="rId8"/>
+    <x:sheet name="Расписание и комбинации" sheetId="41" r:id="rId8"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="191028"/>
@@ -124,6 +124,12 @@
     <x:t>география</x:t>
   </x:si>
   <x:si>
+    <x:t>кирилл, александр, Кокоджамбов</x:t>
+  </x:si>
+  <x:si>
+    <x:t>степан, александр, Кокоджамбов</x:t>
+  </x:si>
+  <x:si>
     <x:t>александр, вадим, Кокоджамбов</x:t>
   </x:si>
   <x:si>
@@ -136,22 +142,7 @@
     <x:t>Список комбинаций преподавателей</x:t>
   </x:si>
   <x:si>
-    <x:t>-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1: Кокоджамбов</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1: александр, Кокоджамбов</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1: степан, александр, Кокоджамбов; 2: кирилл, александр, Кокоджамбов; 3: александр, вадим, Кокоджамбов</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1: александр</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Комбинации</x:t>
+    <x:t>1</x:t>
   </x:si>
   <x:si>
     <x:t>3</x:t>
@@ -160,9 +151,6 @@
     <x:t>2</x:t>
   </x:si>
   <x:si>
-    <x:t>1</x:t>
-  </x:si>
-  <x:si>
     <x:t>0</x:t>
   </x:si>
   <x:si>
@@ -259,30 +247,30 @@
     <x:t>12:15-12:30</x:t>
   </x:si>
   <x:si>
+    <x:t>12:00-12:15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11:45-12:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11:30-11:45</x:t>
+  </x:si>
+  <x:si>
     <x:t>11:15-11:30</x:t>
   </x:si>
   <x:si>
-    <x:t>11:45-12:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12:00-12:15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11:30-11:45</x:t>
+    <x:t>10:15-10:30</x:t>
   </x:si>
   <x:si>
     <x:t>11:00-11:15</x:t>
   </x:si>
   <x:si>
+    <x:t>10:45-11:00</x:t>
+  </x:si>
+  <x:si>
     <x:t>10:30-10:45</x:t>
   </x:si>
   <x:si>
-    <x:t>10:45-11:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10:15-10:30</x:t>
-  </x:si>
-  <x:si>
     <x:t>10:00-10:15</x:t>
   </x:si>
   <x:si>
@@ -299,12 +287,6 @@
   </x:si>
   <x:si>
     <x:t>Teachers/Time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>степан, александр, Кокоджамбов</x:t>
-  </x:si>
-  <x:si>
-    <x:t>кирилл, александр, Кокоджамбов</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -394,21 +376,27 @@
       </x:bottom>
       <x:diagonal/>
     </x:border>
-    <x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="thin">
         <x:color rgb="FF000000"/>
       </x:left>
-      <x:right/>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
       <x:top style="thin">
         <x:color rgb="FF000000"/>
       </x:top>
       <x:bottom style="thin">
         <x:color rgb="FF000000"/>
       </x:bottom>
-      <x:diagonal/>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
     </x:border>
-    <x:border>
-      <x:left/>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
       <x:right style="thin">
         <x:color rgb="FF000000"/>
       </x:right>
@@ -418,17 +406,37 @@
       <x:bottom style="thin">
         <x:color rgb="FF000000"/>
       </x:bottom>
-      <x:diagonal/>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="11">
+  <x:cellStyleXfs count="16">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <x:xf numFmtId="20" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -438,9 +446,6 @@
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -454,22 +459,36 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="16">
+  <x:cellXfs count="20">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <x:xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -483,6 +502,14 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -828,8 +855,8 @@
   </x:sheetPr>
   <x:dimension ref="A1:G6"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="E6" sqref="E6"/>
+    <x:sheetView workbookViewId="0">
+      <x:selection activeCell="E4" sqref="E4"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="13.8"/>
@@ -909,10 +936,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D4" s="1">
-        <x:v>0.375</x:v>
+        <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="E4" s="1">
-        <x:v>0.4375</x:v>
+        <x:v>0.427083333333333</x:v>
       </x:c>
       <x:c r="F4" s="0">
         <x:v>3</x:v>
@@ -952,7 +979,7 @@
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="E6" s="1">
-        <x:v>0.5</x:v>
+        <x:v>0.427083333333333</x:v>
       </x:c>
       <x:c r="F6" s="0">
         <x:v>20</x:v>
@@ -975,7 +1002,7 @@
   <x:dimension ref="A1:F8"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
-      <x:selection activeCell="E9" sqref="E9"/>
+      <x:selection activeCell="D30" sqref="D30"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="13.8"/>
@@ -1033,10 +1060,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D3" s="1">
-        <x:v>0.375</x:v>
+        <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="E3" s="1">
-        <x:v>0.430555555555556</x:v>
+        <x:v>0.427083333333333</x:v>
       </x:c>
       <x:c r="F3" s="0">
         <x:v>4</x:v>
@@ -1053,7 +1080,7 @@
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="E4" s="1">
-        <x:v>0.430555555555556</x:v>
+        <x:v>0.427083333333333</x:v>
       </x:c>
       <x:c r="F4" s="0">
         <x:v>5</x:v>
@@ -1070,7 +1097,7 @@
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="E5" s="1">
-        <x:v>0.4375</x:v>
+        <x:v>0.427083333333333</x:v>
       </x:c>
       <x:c r="F5" s="0">
         <x:v>6</x:v>
@@ -1121,7 +1148,7 @@
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="E8" s="1">
-        <x:v>0.5</x:v>
+        <x:v>0.427083333333333</x:v>
       </x:c>
       <x:c r="F8" s="0">
         <x:v>10</x:v>
@@ -1206,7 +1233,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:AS14"/>
+  <x:dimension ref="A1:AS13"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1214,1007 +1241,866 @@
   <x:cols>
     <x:col min="1" max="1" width="5.710625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="50.710625" style="0" customWidth="1"/>
-    <x:col min="3" max="5" width="15.110625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="50.710625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="30.710625" style="0" customWidth="1"/>
-    <x:col min="8" max="13" width="17.510625" style="0" customWidth="1"/>
-    <x:col min="14" max="45" width="13.910625" style="0" customWidth="1"/>
+    <x:col min="3" max="45" width="13.910625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:45">
-      <x:c r="A1" s="11" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="B1" s="11" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="C1" s="11" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="D1" s="11" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="E1" s="11" t="s">
+      <x:c r="A1" s="12" t="s">
         <x:v>82</x:v>
       </x:c>
-      <x:c r="F1" s="11" t="s">
+      <x:c r="B1" s="12" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="G1" s="11" t="s">
+      <x:c r="C1" s="12" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="H1" s="11" t="s">
+      <x:c r="D1" s="12" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E1" s="12" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="I1" s="11" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="J1" s="11" t="s">
+      <x:c r="F1" s="12" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="K1" s="11" t="s">
+      <x:c r="G1" s="12" t="s">
         <x:v>73</x:v>
       </x:c>
-      <x:c r="L1" s="11" t="s">
+      <x:c r="H1" s="12" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="M1" s="11" t="s">
+      <x:c r="I1" s="12" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="J1" s="12" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="N1" s="11" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="O1" s="11" t="s">
+      <x:c r="K1" s="12" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="P1" s="11" t="s">
+      <x:c r="L1" s="12" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="Q1" s="11" t="s">
+      <x:c r="M1" s="12" t="s">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="R1" s="11" t="s">
+      <x:c r="N1" s="12" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="S1" s="11" t="s">
+      <x:c r="O1" s="12" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="T1" s="11" t="s">
+      <x:c r="P1" s="12" t="s">
         <x:v>67</x:v>
       </x:c>
-      <x:c r="U1" s="11" t="s">
+      <x:c r="Q1" s="12" t="s">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="V1" s="11" t="s">
+      <x:c r="R1" s="12" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="W1" s="11" t="s">
+      <x:c r="S1" s="12" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="X1" s="11" t="s">
+      <x:c r="T1" s="12" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="Y1" s="11" t="s">
+      <x:c r="U1" s="12" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="Z1" s="11" t="s">
+      <x:c r="V1" s="12" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="AA1" s="11" t="s">
+      <x:c r="W1" s="12" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="AB1" s="11" t="s">
+      <x:c r="X1" s="12" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="AC1" s="11" t="s">
+      <x:c r="Y1" s="12" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="AD1" s="11" t="s">
+      <x:c r="Z1" s="12" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="AE1" s="11" t="s">
+      <x:c r="AA1" s="12" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="AF1" s="11" t="s">
+      <x:c r="AB1" s="12" t="s">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="AG1" s="11" t="s">
+      <x:c r="AC1" s="12" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="AH1" s="11" t="s">
+      <x:c r="AD1" s="12" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="AI1" s="11" t="s">
+      <x:c r="AE1" s="12" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="AJ1" s="11" t="s">
+      <x:c r="AF1" s="12" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="AK1" s="11" t="s">
+      <x:c r="AG1" s="12" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="AL1" s="11" t="s">
+      <x:c r="AH1" s="12" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="AM1" s="11" t="s">
+      <x:c r="AI1" s="12" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="AN1" s="11" t="s">
+      <x:c r="AJ1" s="12" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="AO1" s="11" t="s">
+      <x:c r="AK1" s="12" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="AP1" s="11" t="s">
+      <x:c r="AL1" s="12" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="AQ1" s="11" t="s">
+      <x:c r="AM1" s="12" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="AR1" s="11" t="s">
+      <x:c r="AN1" s="12" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="AS1" s="11" t="s">
+      <x:c r="AO1" s="12" t="s">
         <x:v>42</x:v>
       </x:c>
+      <x:c r="AP1" s="12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AQ1" s="12" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AR1" s="12" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="AS1" s="12" t="s">
+        <x:v>38</x:v>
+      </x:c>
     </x:row>
     <x:row r="2" spans="1:45">
-      <x:c r="A2" s="3" t="s">
+      <x:c r="A2" s="13" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="B2" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="C2" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="D2" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="E2" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="F2" s="13" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="G2" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="H2" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="I2" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="J2" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="K2" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="L2" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="M2" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="N2" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="O2" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="P2" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="Q2" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="R2" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="S2" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="T2" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="U2" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="V2" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="W2" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="X2" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="Y2" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="Z2" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AA2" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AB2" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AC2" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AD2" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AE2" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AF2" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AG2" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AH2" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AI2" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AJ2" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AK2" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AL2" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AM2" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AN2" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AO2" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AP2" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AQ2" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AR2" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AS2" s="12" t="s">
-        <x:v>41</x:v>
+      <x:c r="B2" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C2" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D2" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E2" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="F2" s="15" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G2" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H2" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="I2" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J2" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K2" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="L2" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="M2" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="N2" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="O2" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="P2" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="Q2" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="R2" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="S2" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="T2" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="U2" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="V2" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="W2" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="X2" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="Y2" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="Z2" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AA2" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AB2" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AC2" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AD2" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AE2" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AF2" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AG2" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AH2" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AI2" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AJ2" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AK2" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AL2" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AM2" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AN2" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AO2" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AP2" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AQ2" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AR2" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AS2" s="14" t="s">
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:45">
-      <x:c r="A3" s="3" t="s">
+      <x:c r="A3" s="13" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B3" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="C3" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="D3" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="E3" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="F3" s="13" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="G3" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="H3" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="I3" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="J3" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="K3" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="L3" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="M3" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="N3" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="O3" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="P3" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="Q3" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="R3" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="S3" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="T3" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="U3" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="V3" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="W3" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="X3" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="Y3" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="Z3" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AA3" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AB3" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AC3" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AD3" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AE3" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AF3" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AG3" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AH3" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AI3" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AJ3" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AK3" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AL3" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AM3" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AN3" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AO3" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AP3" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AQ3" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AR3" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AS3" s="12" t="s">
-        <x:v>41</x:v>
+      <x:c r="B3" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C3" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D3" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E3" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="F3" s="15" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="G3" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H3" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="I3" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J3" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K3" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="L3" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="M3" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="N3" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="O3" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="P3" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="Q3" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="R3" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="S3" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="T3" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="U3" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="V3" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="W3" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="X3" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="Y3" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="Z3" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AA3" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AB3" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AC3" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AD3" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AE3" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AF3" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AG3" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AH3" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AI3" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AJ3" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AK3" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AL3" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AM3" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AN3" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AO3" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AP3" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AQ3" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AR3" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AS3" s="14" t="s">
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:45">
-      <x:c r="A4" s="3" t="s">
+      <x:c r="A4" s="13" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="B4" s="13" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="C4" s="13" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="D4" s="13" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="E4" s="13" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="F4" s="13" t="s">
+      <x:c r="B4" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C4" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D4" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E4" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="F4" s="15" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="G4" s="13" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="H4" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="I4" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="J4" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="K4" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="L4" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="M4" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="N4" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="O4" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="P4" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="Q4" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="R4" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="S4" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="T4" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="U4" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="V4" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="W4" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="X4" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="Y4" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="Z4" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AA4" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AB4" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AC4" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AD4" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AE4" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AF4" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AG4" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AH4" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AI4" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AJ4" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AK4" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AL4" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AM4" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AN4" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AO4" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AP4" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AQ4" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AR4" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AS4" s="12" t="s">
-        <x:v>41</x:v>
+      <x:c r="G4" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H4" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="I4" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J4" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K4" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="L4" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="M4" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="N4" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="O4" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="P4" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="Q4" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="R4" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="S4" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="T4" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="U4" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="V4" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="W4" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="X4" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="Y4" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="Z4" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AA4" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AB4" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AC4" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AD4" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AE4" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AF4" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AG4" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AH4" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AI4" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AJ4" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AK4" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AL4" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AM4" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AN4" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AO4" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AP4" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AQ4" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AR4" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AS4" s="14" t="s">
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:45">
-      <x:c r="A5" s="3" t="s">
+      <x:c r="A5" s="13" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="B5" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="C5" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="D5" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="E5" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="F5" s="13" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="G5" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="H5" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="I5" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="J5" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="K5" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="L5" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="M5" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="N5" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="O5" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="P5" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="Q5" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="R5" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="S5" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="T5" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="U5" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="V5" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="W5" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="X5" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="Y5" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="Z5" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AA5" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AB5" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AC5" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AD5" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AE5" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AF5" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AG5" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AH5" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AI5" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AJ5" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AK5" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AL5" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AM5" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AN5" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AO5" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AP5" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AQ5" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AR5" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AS5" s="12" t="s">
-        <x:v>41</x:v>
+      <x:c r="B5" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C5" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D5" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E5" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="F5" s="15" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="G5" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H5" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="I5" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J5" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K5" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="L5" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="M5" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="N5" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="O5" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="P5" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="Q5" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="R5" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="S5" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="T5" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="U5" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="V5" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="W5" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="X5" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="Y5" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="Z5" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AA5" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AB5" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AC5" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AD5" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AE5" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AF5" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AG5" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AH5" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AI5" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AJ5" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AK5" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AL5" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AM5" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AN5" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AO5" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AP5" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AQ5" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AR5" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AS5" s="14" t="s">
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:45">
-      <x:c r="A6" s="3" t="s">
+      <x:c r="A6" s="13" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B6" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="C6" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="D6" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="E6" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="F6" s="13" t="s">
+      <x:c r="B6" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C6" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D6" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E6" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="F6" s="15" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="G6" s="13" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="H6" s="13" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="I6" s="13" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="J6" s="13" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="K6" s="13" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="L6" s="13" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="M6" s="13" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="N6" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="O6" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="P6" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="Q6" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="R6" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="S6" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="T6" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="U6" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="V6" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="W6" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="X6" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="Y6" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="Z6" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AA6" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AB6" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AC6" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AD6" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AE6" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AF6" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AG6" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AH6" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AI6" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AJ6" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AK6" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AL6" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AM6" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AN6" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AO6" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AP6" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AQ6" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AR6" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="AS6" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:45">
-      <x:c r="A7" s="3" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="B7" s="13" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="C7" s="13" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="D7" s="13" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="E7" s="13" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="F7" s="13" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="G7" s="13" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="H7" s="13" t="s">
+      <x:c r="G6" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H6" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="I6" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J6" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K6" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="L6" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="M6" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="N6" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="O6" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="P6" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="Q6" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="R6" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="S6" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="T6" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="U6" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="V6" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="W6" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="X6" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="Y6" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="Z6" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AA6" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AB6" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AC6" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AD6" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AE6" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AF6" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AG6" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AH6" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AI6" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AJ6" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AK6" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AL6" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AM6" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AN6" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AO6" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AP6" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AQ6" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AR6" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AS6" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:45">
+      <x:c r="A9" s="6" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="I7" s="13" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="J7" s="13" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="K7" s="13" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="L7" s="13" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="M7" s="13" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="N7" s="13" t="s">
+    </x:row>
+    <x:row r="10" spans="1:45">
+      <x:c r="A10" s="16" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="O7" s="13" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="P7" s="13" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="Q7" s="13" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="R7" s="13" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="S7" s="13" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="T7" s="13" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="U7" s="13" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="V7" s="13" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="W7" s="13" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="X7" s="13" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="Y7" s="13" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="Z7" s="13" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="AA7" s="13" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="AB7" s="13" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="AC7" s="13" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="AD7" s="13" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="AE7" s="13" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="AF7" s="13" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="AG7" s="13" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="AH7" s="13" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="AI7" s="13" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="AJ7" s="13" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="AK7" s="13" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="AL7" s="13" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="AM7" s="13" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="AN7" s="13" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="AO7" s="13" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="AP7" s="13" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="AQ7" s="13" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="AR7" s="13" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="AS7" s="13" t="s">
-        <x:v>32</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:45">
-      <x:c r="A10" s="2" t="s">
+      <x:c r="B10" s="17" t="s">
         <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:45">
-      <x:c r="A11" s="14" t="s">
+      <x:c r="A11" s="18">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B11" s="19" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="B11" s="15" t="s">
+    </x:row>
+    <x:row r="12" spans="1:45">
+      <x:c r="A12" s="18">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B12" s="19" t="s">
         <x:v>29</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:45">
-      <x:c r="A12" s="4">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B12" s="5" t="s">
+    <x:row r="13" spans="1:45">
+      <x:c r="A13" s="18">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B13" s="19" t="s">
         <x:v>28</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:45">
-      <x:c r="A13" s="4">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B13" s="5" t="s">
-        <x:v>87</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:45">
-      <x:c r="A14" s="4">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B14" s="5" t="s">
-        <x:v>88</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
